--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.0554877855067</v>
+        <v>288.050693992159</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.7247442132298</v>
+        <v>394.1236674198134</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.6008388006908</v>
+        <v>356.5090577573071</v>
       </c>
       <c r="AD2" t="n">
-        <v>200055.4877855067</v>
+        <v>288050.693992159</v>
       </c>
       <c r="AE2" t="n">
-        <v>273724.7442132298</v>
+        <v>394123.6674198135</v>
       </c>
       <c r="AF2" t="n">
         <v>9.079423534719063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>247600.8388006907</v>
+        <v>356509.0577573071</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.9514395542157</v>
+        <v>242.2254442982206</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.3255926250083</v>
+        <v>331.4235391210765</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.9162729078887</v>
+        <v>299.792941703318</v>
       </c>
       <c r="AD3" t="n">
-        <v>163951.4395542157</v>
+        <v>242225.4442982206</v>
       </c>
       <c r="AE3" t="n">
-        <v>224325.5926250083</v>
+        <v>331423.5391210765</v>
       </c>
       <c r="AF3" t="n">
         <v>1.049738471218251e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>202916.2729078887</v>
+        <v>299792.941703318</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.2680985205809</v>
+        <v>249.6110064949596</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.7048123278823</v>
+        <v>341.528791146658</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.2094758531591</v>
+        <v>308.9337626583916</v>
       </c>
       <c r="AD2" t="n">
-        <v>172268.0985205809</v>
+        <v>249611.0064949596</v>
       </c>
       <c r="AE2" t="n">
-        <v>235704.8123278823</v>
+        <v>341528.791146658</v>
       </c>
       <c r="AF2" t="n">
         <v>1.122222165059715e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>213209.4758531591</v>
+        <v>308933.7626583916</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.6939528450293</v>
+        <v>238.1041806271124</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.8685555993308</v>
+        <v>325.7846443489478</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.8846092404496</v>
+        <v>294.6922151340011</v>
       </c>
       <c r="AD3" t="n">
-        <v>160693.9528450293</v>
+        <v>238104.1806271124</v>
       </c>
       <c r="AE3" t="n">
-        <v>219868.5555993307</v>
+        <v>325784.6443489479</v>
       </c>
       <c r="AF3" t="n">
         <v>1.176614391896008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>198884.6092404496</v>
+        <v>294692.2151340011</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.8966171476054</v>
+        <v>227.7063056466357</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.1998969039476</v>
+        <v>311.5578130787977</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.2341523573939</v>
+        <v>281.8231726727865</v>
       </c>
       <c r="AD2" t="n">
-        <v>152896.6171476054</v>
+        <v>227706.3056466357</v>
       </c>
       <c r="AE2" t="n">
-        <v>209199.8969039476</v>
+        <v>311557.8130787977</v>
       </c>
       <c r="AF2" t="n">
         <v>1.645971246865509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189234.1523573939</v>
+        <v>281823.1726727865</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.6735737688781</v>
+        <v>221.9842448605249</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.9994514638507</v>
+        <v>303.7286370717392</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.6710827628094</v>
+        <v>274.7412022355217</v>
       </c>
       <c r="AD2" t="n">
-        <v>155673.5737688781</v>
+        <v>221984.244860525</v>
       </c>
       <c r="AE2" t="n">
-        <v>212999.4514638507</v>
+        <v>303728.6370717392</v>
       </c>
       <c r="AF2" t="n">
         <v>1.447043662594429e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>192671.0827628094</v>
+        <v>274741.2022355216</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.7069660274566</v>
+        <v>234.6154263303878</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.8863608096289</v>
+        <v>321.0111768071947</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.9007151464666</v>
+        <v>290.3743206348277</v>
       </c>
       <c r="AD2" t="n">
-        <v>160706.9660274566</v>
+        <v>234615.4263303878</v>
       </c>
       <c r="AE2" t="n">
-        <v>219886.3608096289</v>
+        <v>321011.1768071947</v>
       </c>
       <c r="AF2" t="n">
         <v>1.790256867323005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>198900.7151464666</v>
+        <v>290374.3206348277</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.037451604944</v>
+        <v>251.7088811955571</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.1257192762556</v>
+        <v>344.3991958637139</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.3993348401447</v>
+        <v>311.5302199778909</v>
       </c>
       <c r="AD2" t="n">
-        <v>174037.451604944</v>
+        <v>251708.8811955571</v>
       </c>
       <c r="AE2" t="n">
-        <v>238125.7192762556</v>
+        <v>344399.1958637139</v>
       </c>
       <c r="AF2" t="n">
         <v>1.067408221380654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>215399.3348401447</v>
+        <v>311530.2199778909</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.4998131025616</v>
+        <v>239.1370772743939</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.9711691557312</v>
+        <v>327.1978991099417</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.8819909065554</v>
+        <v>295.9705908441217</v>
       </c>
       <c r="AD3" t="n">
-        <v>161499.8131025616</v>
+        <v>239137.0772743939</v>
       </c>
       <c r="AE3" t="n">
-        <v>220971.1691557312</v>
+        <v>327197.8991099417</v>
       </c>
       <c r="AF3" t="n">
         <v>1.142585246739185e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>199881.9909065554</v>
+        <v>295970.5908441217</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.6787242679879</v>
+        <v>242.3160586985816</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.4794750714995</v>
+        <v>331.5475217412755</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.6281006086074</v>
+        <v>299.9050915962561</v>
       </c>
       <c r="AD2" t="n">
-        <v>159678.7242679879</v>
+        <v>242316.0586985816</v>
       </c>
       <c r="AE2" t="n">
-        <v>218479.4750714995</v>
+        <v>331547.5217412756</v>
       </c>
       <c r="AF2" t="n">
         <v>1.88463905563334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>197628.1006086073</v>
+        <v>299905.0915962561</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.2687853407233</v>
+        <v>225.3205720181693</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.5503344291016</v>
+        <v>308.293547077192</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.8830744415534</v>
+        <v>278.870443636947</v>
       </c>
       <c r="AD2" t="n">
-        <v>158268.7853407233</v>
+        <v>225320.5720181693</v>
       </c>
       <c r="AE2" t="n">
-        <v>216550.3344291016</v>
+        <v>308293.5470771921</v>
       </c>
       <c r="AF2" t="n">
         <v>1.295454479281863e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>195883.0744415534</v>
+        <v>278870.443636947</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.3586925257991</v>
+        <v>225.4104792032451</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.6733494061473</v>
+        <v>308.4165620542378</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.9943490418425</v>
+        <v>278.9817182372361</v>
       </c>
       <c r="AD3" t="n">
-        <v>158358.6925257991</v>
+        <v>225410.4792032451</v>
       </c>
       <c r="AE3" t="n">
-        <v>216673.3494061473</v>
+        <v>308416.5620542378</v>
       </c>
       <c r="AF3" t="n">
         <v>1.293898433792825e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195994.3490418425</v>
+        <v>278981.7182372361</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.4741437797291</v>
+        <v>237.6487018283868</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.5678031388955</v>
+        <v>325.1614381622254</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.6125601727295</v>
+        <v>294.1284868710639</v>
       </c>
       <c r="AD2" t="n">
-        <v>160474.1437797291</v>
+        <v>237648.7018283868</v>
       </c>
       <c r="AE2" t="n">
-        <v>219567.8031388955</v>
+        <v>325161.4381622254</v>
       </c>
       <c r="AF2" t="n">
         <v>1.194211587428259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>198612.5601727295</v>
+        <v>294128.4868710639</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.965304964772</v>
+        <v>237.1398630134297</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.8715874238873</v>
+        <v>324.4652224472172</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.9827903084166</v>
+        <v>293.498717006751</v>
       </c>
       <c r="AD3" t="n">
-        <v>159965.304964772</v>
+        <v>237139.8630134297</v>
       </c>
       <c r="AE3" t="n">
-        <v>218871.5874238873</v>
+        <v>324465.2224472172</v>
       </c>
       <c r="AF3" t="n">
         <v>1.211789448480149e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>197982.7903084166</v>
+        <v>293498.717006751</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.1950554320574</v>
+        <v>276.0264048042196</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.4967774219019</v>
+        <v>377.6715044786747</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9216463838277</v>
+        <v>341.6270661565148</v>
       </c>
       <c r="AD2" t="n">
-        <v>188195.0554320574</v>
+        <v>276026.4048042196</v>
       </c>
       <c r="AE2" t="n">
-        <v>257496.7774219019</v>
+        <v>377671.5044786747</v>
       </c>
       <c r="AF2" t="n">
         <v>9.513260298582454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>232921.6463838277</v>
+        <v>341627.0661565149</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.6747921417061</v>
+        <v>240.7433065370938</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.5788273135047</v>
+        <v>329.3956128490005</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.3362164261139</v>
+        <v>297.9585578684361</v>
       </c>
       <c r="AD3" t="n">
-        <v>162674.7921417061</v>
+        <v>240743.3065370938</v>
       </c>
       <c r="AE3" t="n">
-        <v>222578.8273135047</v>
+        <v>329395.6128490005</v>
       </c>
       <c r="AF3" t="n">
         <v>1.091754803502472e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>201336.2164261139</v>
+        <v>297958.557868436</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4490260809684</v>
+        <v>223.0199001977055</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.0604595277936</v>
+        <v>305.1456663939577</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6308297062641</v>
+        <v>276.0229922680412</v>
       </c>
       <c r="AD2" t="n">
-        <v>156449.0260809684</v>
+        <v>223019.9001977055</v>
       </c>
       <c r="AE2" t="n">
-        <v>214060.4595277936</v>
+        <v>305145.6663939577</v>
       </c>
       <c r="AF2" t="n">
         <v>1.396625210347196e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>193630.8297062641</v>
+        <v>276022.9922680412</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.0018148214342</v>
+        <v>229.1751163518268</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.7120771191596</v>
+        <v>313.567504684994</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.6020122152248</v>
+        <v>283.6410621327081</v>
       </c>
       <c r="AD2" t="n">
-        <v>154001.8148214342</v>
+        <v>229175.1163518268</v>
       </c>
       <c r="AE2" t="n">
-        <v>210712.0771191596</v>
+        <v>313567.5046849941</v>
       </c>
       <c r="AF2" t="n">
         <v>1.564239797003507e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>190602.0122152248</v>
+        <v>283641.0621327081</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.0825001761148</v>
+        <v>226.4960740985515</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.0859861472488</v>
+        <v>309.9019208830618</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.2265516799305</v>
+        <v>280.3253165041519</v>
       </c>
       <c r="AD2" t="n">
-        <v>152082.5001761148</v>
+        <v>226496.0740985515</v>
       </c>
       <c r="AE2" t="n">
-        <v>208085.9861472488</v>
+        <v>309901.9208830618</v>
       </c>
       <c r="AF2" t="n">
         <v>1.719369119859906e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>188226.5516799305</v>
+        <v>280325.3165041519</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.3672953977592</v>
+        <v>259.3252492409767</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.6817584559235</v>
+        <v>354.8202466340633</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.5205520349477</v>
+        <v>320.9567002886513</v>
       </c>
       <c r="AD2" t="n">
-        <v>177367.2953977592</v>
+        <v>259325.2492409767</v>
       </c>
       <c r="AE2" t="n">
-        <v>242681.7584559235</v>
+        <v>354820.2466340633</v>
       </c>
       <c r="AF2" t="n">
         <v>1.956121866242102e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>219520.5520349477</v>
+        <v>320956.7002886513</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8198533208595</v>
+        <v>226.0955798586745</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.304329950927</v>
+        <v>309.3539469955035</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.5651096890154</v>
+        <v>279.8296404753357</v>
       </c>
       <c r="AD2" t="n">
-        <v>158819.8533208595</v>
+        <v>226095.5798586745</v>
       </c>
       <c r="AE2" t="n">
-        <v>217304.329950927</v>
+        <v>309353.9469955035</v>
       </c>
       <c r="AF2" t="n">
         <v>1.259961350202204e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>196565.1096890154</v>
+        <v>279829.6404753358</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.976084612961</v>
+        <v>226.2518111507761</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.5180924972184</v>
+        <v>309.567709541795</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.7584710379064</v>
+        <v>280.0230018242269</v>
       </c>
       <c r="AD3" t="n">
-        <v>158976.084612961</v>
+        <v>226251.8111507761</v>
       </c>
       <c r="AE3" t="n">
-        <v>217518.0924972185</v>
+        <v>309567.709541795</v>
       </c>
       <c r="AF3" t="n">
         <v>1.257560310295113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>196758.4710379064</v>
+        <v>280023.0018242269</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.9370123217838</v>
+        <v>263.760322857761</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.4072232205958</v>
+        <v>360.8885100181864</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.1269548992766</v>
+        <v>326.4458171322549</v>
       </c>
       <c r="AD2" t="n">
-        <v>185937.0123217838</v>
+        <v>263760.322857761</v>
       </c>
       <c r="AE2" t="n">
-        <v>254407.2232205958</v>
+        <v>360888.5100181864</v>
       </c>
       <c r="AF2" t="n">
         <v>1.007838335796772e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>230126.9548992766</v>
+        <v>326445.8171322549</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.2031694912932</v>
+        <v>240.0596344161907</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.9335323966873</v>
+        <v>328.4601824916962</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.7525075504802</v>
+        <v>297.1124036715478</v>
       </c>
       <c r="AD3" t="n">
-        <v>162203.1694912932</v>
+        <v>240059.6344161907</v>
       </c>
       <c r="AE3" t="n">
-        <v>221933.5323966873</v>
+        <v>328460.1824916961</v>
       </c>
       <c r="AF3" t="n">
         <v>1.11467558862243e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>200752.5075504802</v>
+        <v>297112.4036715478</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.2411537916947</v>
+        <v>294.4705275613642</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.451757101445</v>
+        <v>402.9075669322683</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.7812736167696</v>
+        <v>364.4546342285735</v>
       </c>
       <c r="AD2" t="n">
-        <v>204241.1537916947</v>
+        <v>294470.5275613642</v>
       </c>
       <c r="AE2" t="n">
-        <v>279451.757101445</v>
+        <v>402907.5669322683</v>
       </c>
       <c r="AF2" t="n">
         <v>1.963423451668711e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>252781.2736167696</v>
+        <v>364454.6342285735</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.0224966509897</v>
+        <v>221.0569318668861</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.108619027661</v>
+        <v>302.4598465236811</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.8652701240381</v>
+        <v>273.5935032766111</v>
       </c>
       <c r="AD2" t="n">
-        <v>155022.4966509897</v>
+        <v>221056.9318668861</v>
       </c>
       <c r="AE2" t="n">
-        <v>212108.619027661</v>
+        <v>302459.8465236811</v>
       </c>
       <c r="AF2" t="n">
         <v>1.495311953574035e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>191865.2701240382</v>
+        <v>273593.5032766111</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.2617691179722</v>
+        <v>224.0790849541222</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.1724904067139</v>
+        <v>306.5948897056199</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.6367299188457</v>
+        <v>277.3339037408365</v>
       </c>
       <c r="AD2" t="n">
-        <v>157261.7691179722</v>
+        <v>224079.0849541222</v>
       </c>
       <c r="AE2" t="n">
-        <v>215172.4904067139</v>
+        <v>306594.8897056199</v>
       </c>
       <c r="AF2" t="n">
         <v>1.349205250939654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>194636.7299188457</v>
+        <v>277333.9037408365</v>
       </c>
     </row>
   </sheetData>
